--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quoc Huy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODE\Nhom27_TTCS\Web-h-tr-t-m-ph-ng\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C050AB4-9860-482F-8F6F-1D81F4A5F7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D09739-6737-4492-8008-1A18C70AF23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F848F67B-F1C3-45B7-8A11-03879762BC87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>ADMIN</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>acc_bala</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -117,21 +114,12 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>Tên chủ phòng</t>
-  </si>
-  <si>
     <t>addres</t>
   </si>
   <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>chara</t>
-  </si>
-  <si>
-    <t>Đặc điểm</t>
-  </si>
-  <si>
     <t>des</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>num</t>
   </si>
   <si>
-    <t>stre</t>
-  </si>
-  <si>
     <t>ph</t>
   </si>
   <si>
@@ -177,75 +162,9 @@
     <t>ti</t>
   </si>
   <si>
-    <t>ĐẶC ĐIỂM</t>
-  </si>
-  <si>
-    <t>Diện tích</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Diện tích sử dụng</t>
-  </si>
-  <si>
-    <t>Loại hình căn hộ</t>
-  </si>
-  <si>
-    <t>Số tầng</t>
-  </si>
-  <si>
-    <t>Chiều dài</t>
-  </si>
-  <si>
-    <t>Chiều ngang</t>
-  </si>
-  <si>
-    <t>Nội thất</t>
-  </si>
-  <si>
-    <t>Số phòng ngủ</t>
-  </si>
-  <si>
-    <t>Số phòng vệ sinh</t>
-  </si>
-  <si>
-    <t>Điều hòa</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>s_u</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>num_of_fl</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>fur</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>toi</t>
-  </si>
-  <si>
-    <t>air_con</t>
-  </si>
-  <si>
-    <t>Viết SQL</t>
-  </si>
-  <si>
     <t>Hành động</t>
   </si>
   <si>
@@ -273,12 +192,6 @@
     <t>SELECT * FROM TaiKhoan WHERE user=?</t>
   </si>
   <si>
-    <t>INSERT INTO ThongTin (user, pass, fullname, id_card, phone, email, acc_bala) VALUES (?,?,?,?,?,?,?)</t>
-  </si>
-  <si>
-    <t>UPDATE ThongTin SET user=?, pass=?, fullname=?, id_card=?, phone=?, email=?, acc_bala=? WHERE user=?</t>
-  </si>
-  <si>
     <t>Cập nhật theo tên tài khoản</t>
   </si>
   <si>
@@ -312,9 +225,6 @@
     <t>INSERT INTO Phong (id, name, image, address, chara, des, price) VALUES (?,?,?,?,?,?,?)</t>
   </si>
   <si>
-    <t>UPDATE Phong SET id=?, name=?, image=?, address=?, chara=?, des=?, price=? WHERE id=?</t>
-  </si>
-  <si>
     <t>DELETE FROM Phong WHERE id=?</t>
   </si>
   <si>
@@ -345,21 +255,6 @@
     <t>ID phòng SELECT * FROM DiaChi WHERE id=?</t>
   </si>
   <si>
-    <t>INSERT INTO DacDiem (id, s, s_u, type, num_of_fl, long, wide, fur, bed, toi, air_con) VALUES (?,?,?,?,?,?,?,?,?,?,?)</t>
-  </si>
-  <si>
-    <t>UPDATE DacDiem SET id=?, s=?, s_u=?, type=?, num_of_fl=?, long=?, wide=?, fur=?, bed=?, toi=?, air_con=? WHERE id=?</t>
-  </si>
-  <si>
-    <t>DELETE FROM DacDiem WHERE id=?</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DacDiem</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DacDiem WHERE id=?</t>
-  </si>
-  <si>
     <t>per</t>
   </si>
   <si>
@@ -397,30 +292,41 @@
   </si>
   <si>
     <t>UPDATE PHONG set status=? WHERE id=?</t>
+  </si>
+  <si>
+    <t>acc_balance</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>INSERT INTO ThongTin (user,, fullname, id_card, phone, email, acc_bala) VALUES (?,?,?,?,?,?,?)</t>
+  </si>
+  <si>
+    <t>UPDATE ThongTin SET user=?, fullname=?, id_card=?, phone=?, email=?, acc_bala=? WHERE user=?</t>
+  </si>
+  <si>
+    <t>Tên người đăng</t>
+  </si>
+  <si>
+    <t>UPDATE Phong SET id=?, name=?, image=?, address=?, des=?, price=? WHERE id=?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -530,19 +436,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,26 +484,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,39 +827,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAF9199-D071-4C68-BC7B-3442312A07C4}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D41"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.796875" customWidth="1"/>
-    <col min="9" max="9" width="50.69921875" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -982,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -991,10 +909,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1017,12 +935,12 @@
         <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1031,12 +949,12 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -1045,12 +963,12 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1059,18 +977,18 @@
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1079,10 +997,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1110,9 +1028,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1121,12 +1039,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -1135,197 +1053,77 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,22 +1136,10 @@
       <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -1362,23 +1148,11 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1388,24 +1162,12 @@
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1414,38 +1176,26 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -1454,452 +1204,365 @@
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="F36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="F37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="F38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="F34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="F40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="F35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="F37" s="2" t="s">
+      <c r="B41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="F38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="F39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="F44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="F45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="F46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="F47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="F48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="F49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B56:D56"/>
+  <mergeCells count="34">
+    <mergeCell ref="G40:I40"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G39:I39"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
